--- a/Examples/ccpoly/ccpoly_model.xlsx
+++ b/Examples/ccpoly/ccpoly_model.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\es17155931r\Personal\Termoeconomia\ExIOLab\Ejemplos\ccpoly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctorr\Documents\Proyectos\TaesLab\Examples\ccpoly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66361B4C-F98F-4565-AA17-2D649E764B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20340" windowHeight="7590" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="2730" yWindow="780" windowWidth="25740" windowHeight="14700" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PhysicalDiagram" sheetId="5" r:id="rId1"/>
@@ -23,7 +24,7 @@
   </sheets>
   <definedNames>
     <definedName name="cgam_flows" localSheetId="2">Flows!$A$1:$B$10</definedName>
-    <definedName name="cgam_processes" localSheetId="3">Processes!$A$1:$E$1</definedName>
+    <definedName name="cgam_processes" localSheetId="3">Processes!$A$1:$D$1</definedName>
     <definedName name="cgam_sample" localSheetId="4">Exergy!$A$1:$B$1</definedName>
     <definedName name="gturbo_processes" localSheetId="3">Processes!$G$5:$K$13</definedName>
     <definedName name="tgas_fmt" localSheetId="5">Format!$A$1:$D$7</definedName>
@@ -38,8 +39,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="cgam_flows" type="6" refreshedVersion="6" deleted="1" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="cgam_flows" type="6" refreshedVersion="6" deleted="1" background="1" saveData="1">
     <textPr codePage="850" sourceFile="C:\Users\es17155931r\Personal\Termoeconomia\ExIOLab\Ejemplos\cgam\cgam_flows.csv" comma="1">
       <textFields count="2">
         <textField/>
@@ -47,7 +48,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" name="cgam_processes" type="6" refreshedVersion="6" deleted="1" background="1" saveData="1">
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="cgam_processes" type="6" refreshedVersion="6" deleted="1" background="1" saveData="1">
     <textPr codePage="850" sourceFile="C:\Users\es17155931r\Personal\Termoeconomia\ExIOLab\Ejemplos\cgam\cgam_processes.csv" comma="1">
       <textFields count="5">
         <textField/>
@@ -58,7 +59,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" name="cgam_sample" type="6" refreshedVersion="6" deleted="1" background="1" saveData="1">
+  <connection id="3" xr16:uid="{00000000-0015-0000-FFFF-FFFF02000000}" name="cgam_sample" type="6" refreshedVersion="6" deleted="1" background="1" saveData="1">
     <textPr codePage="850" sourceFile="C:\Users\es17155931r\Personal\Termoeconomia\ExIOLab\Ejemplos\cgam\cgam_sample.csv" comma="1">
       <textFields count="3">
         <textField/>
@@ -67,7 +68,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="4" name="gturbo_processes" type="6" refreshedVersion="6" deleted="1" background="1" saveData="1">
+  <connection id="4" xr16:uid="{00000000-0015-0000-FFFF-FFFF03000000}" name="gturbo_processes" type="6" refreshedVersion="6" deleted="1" background="1" saveData="1">
     <textPr sourceFile="C:\Users\es17155931r\Personal\Termoeconomia\ExIOLab2\Ejemplos\gturbo\gturbo_processes.csv" comma="1">
       <textFields count="5">
         <textField/>
@@ -78,7 +79,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="5" name="tgas_fmt" type="6" refreshedVersion="6" deleted="1" background="1" saveData="1">
+  <connection id="5" xr16:uid="{00000000-0015-0000-FFFF-FFFF04000000}" name="tgas_fmt" type="6" refreshedVersion="6" deleted="1" background="1" saveData="1">
     <textPr codePage="850" sourceFile="C:\Users\es17155931r\Personal\Termoeconomia\ExIOLab2\Ejemplos\tgas\tgas_fmt.csv" comma="1">
       <textFields count="4">
         <textField/>
@@ -373,7 +374,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -545,7 +546,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -553,25 +554,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -617,6 +616,9 @@
             <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
               <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s1027"/>
             </a:ext>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
+            </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
@@ -659,7 +661,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Imagen 4"/>
+        <xdr:cNvPr id="5" name="Imagen 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -703,23 +711,23 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="cgam_flows" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="cgam_flows" connectionId="1" xr16:uid="{00000000-0016-0000-0200-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="gturbo_processes" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="cgam_processes" connectionId="2" xr16:uid="{00000000-0016-0000-0300-000002000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="cgam_processes" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="gturbo_processes" connectionId="4" xr16:uid="{00000000-0016-0000-0300-000001000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="cgam_sample" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="cgam_sample" connectionId="3" xr16:uid="{00000000-0016-0000-0400-000003000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tgas_fmt" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tgas_fmt" connectionId="5" xr16:uid="{00000000-0016-0000-0500-000004000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -984,7 +992,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Hoja1">
     <tabColor rgb="FFC00000"/>
   </sheetPr>
@@ -1009,388 +1017,150 @@
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="8"/>
+      <c r="J3" s="7"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="8"/>
+      <c r="J4" s="7"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="8"/>
+      <c r="J5" s="7"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="8"/>
+      <c r="J6" s="7"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="8"/>
+      <c r="J7" s="7"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="8"/>
+      <c r="J8" s="7"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="6"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="8"/>
+      <c r="J9" s="7"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="6"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="8"/>
+      <c r="J10" s="7"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="8"/>
+      <c r="J11" s="7"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="8"/>
+      <c r="J12" s="7"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="6"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="8"/>
+      <c r="J13" s="7"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="8"/>
+      <c r="J14" s="7"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="6"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="8"/>
+      <c r="J15" s="7"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="8"/>
+      <c r="J16" s="7"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="6"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="8"/>
+      <c r="J17" s="7"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="6"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="8"/>
+      <c r="J18" s="7"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="6"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="8"/>
+      <c r="J19" s="7"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="6"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="8"/>
+      <c r="J20" s="7"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="6"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="8"/>
+      <c r="J21" s="7"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="6"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="8"/>
+      <c r="J22" s="7"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="6"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="8"/>
+      <c r="J23" s="7"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="6"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="8"/>
+      <c r="J24" s="7"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="6"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="8"/>
+      <c r="J25" s="7"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="6"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="8"/>
+      <c r="J26" s="7"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="6"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="8"/>
+      <c r="J27" s="7"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="6"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="8"/>
+      <c r="J28" s="7"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="6"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="8"/>
+      <c r="J29" s="7"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="6"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="8"/>
+      <c r="J30" s="7"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="6"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="8"/>
+      <c r="J31" s="7"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" s="6"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="8"/>
+      <c r="J32" s="7"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="6"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="8"/>
+      <c r="J33" s="7"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" s="6"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="8"/>
+      <c r="J34" s="7"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" s="6"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="8"/>
+      <c r="J35" s="7"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" s="6"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="8"/>
+      <c r="J36" s="7"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B37" s="9"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="11"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1400,7 +1170,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Hoja2">
     <tabColor rgb="FFC00000"/>
   </sheetPr>
@@ -1490,7 +1260,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:B23"/>
   <sheetViews>
@@ -1693,7 +1463,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Flow Type" error="Invalid Flow Type">
+        <x14:dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Flow Type" error="Invalid Flow Type" xr:uid="{00000000-0002-0000-0200-000000000000}">
           <x14:formula1>
             <xm:f>Validate!$A$2:$A$5</xm:f>
           </x14:formula1>
@@ -1706,21 +1476,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Hoja4"/>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="16.5703125" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" customWidth="1"/>
     <col min="6" max="6" width="6.42578125" customWidth="1"/>
     <col min="7" max="7" width="13.85546875" customWidth="1"/>
     <col min="8" max="8" width="8.85546875" customWidth="1"/>
@@ -1730,207 +1500,207 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14" t="s">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="E2" s="8" t="s">
+    </row>
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="17" t="s">
+      <c r="C3" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="E3" s="8" t="s">
+    </row>
+    <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="17" t="s">
+      <c r="C4" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="E4" s="8" t="s">
+    </row>
+    <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="C5" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="E5" s="8" t="s">
+    </row>
+    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="17" t="s">
+      <c r="C6" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="8" t="s">
+    </row>
+    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" s="17" t="s">
+      <c r="C7" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="E7" s="8" t="s">
+    </row>
+    <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="17" t="s">
+      <c r="C8" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="E8" s="8" t="s">
+    </row>
+    <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" s="17" t="s">
+      <c r="C9" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="8" t="s">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="B10" s="17" t="s">
+      <c r="C10" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="8" t="s">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" s="18" t="s">
+      <c r="C12" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="17" t="s">
         <v>77</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1938,11 +1708,11 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Processes Type" error="Invalid Process Type">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Processes Type" error="Invalid Process Type" xr:uid="{00000000-0002-0000-0300-000000000000}">
           <x14:formula1>
             <xm:f>Validate!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E12</xm:sqref>
+          <xm:sqref>B2:B12</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1951,7 +1721,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Hoja5"/>
   <dimension ref="A1:B23"/>
   <sheetViews>
@@ -1981,7 +1751,7 @@
       <c r="A2" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="19">
+      <c r="B2">
         <v>0</v>
       </c>
     </row>
@@ -1989,7 +1759,7 @@
       <c r="A3" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B3">
         <v>251434.73977777775</v>
       </c>
     </row>
@@ -1997,7 +1767,7 @@
       <c r="A4" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4">
         <v>800981.43552777776</v>
       </c>
     </row>
@@ -2005,7 +1775,7 @@
       <c r="A5" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5">
         <v>238347.47561111115</v>
       </c>
     </row>
@@ -2013,7 +1783,7 @@
       <c r="A6" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6">
         <v>17248.722222222223</v>
       </c>
     </row>
@@ -2021,7 +1791,7 @@
       <c r="A7" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7">
         <v>2973.5579999999995</v>
       </c>
     </row>
@@ -2029,7 +1799,7 @@
       <c r="A8" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8">
         <v>467.40619999999996</v>
       </c>
     </row>
@@ -2037,7 +1807,7 @@
       <c r="A9" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9">
         <v>241.36399999999995</v>
       </c>
     </row>
@@ -2045,7 +1815,7 @@
       <c r="A10" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10">
         <v>170942.39444444445</v>
       </c>
     </row>
@@ -2053,7 +1823,7 @@
       <c r="A11" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11">
         <v>14770.366666666669</v>
       </c>
     </row>
@@ -2061,7 +1831,7 @@
       <c r="A12" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12">
         <v>18.433333333333334</v>
       </c>
     </row>
@@ -2069,7 +1839,7 @@
       <c r="A13" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13">
         <v>257.95694444444445</v>
       </c>
     </row>
@@ -2077,7 +1847,7 @@
       <c r="A14" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="20">
+      <c r="B14" s="18">
         <v>261432.5</v>
       </c>
     </row>
@@ -2085,7 +1855,7 @@
       <c r="A15" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="20">
+      <c r="B15" s="18">
         <v>256695.09999999998</v>
       </c>
     </row>
@@ -2093,7 +1863,7 @@
       <c r="A16" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="20">
+      <c r="B16" s="18">
         <v>141167.47</v>
       </c>
     </row>
@@ -2101,7 +1871,7 @@
       <c r="A17" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="20">
+      <c r="B17" s="18">
         <v>384.03</v>
       </c>
     </row>
@@ -2109,7 +1879,7 @@
       <c r="A18" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="20">
+      <c r="B18" s="18">
         <v>718204.1</v>
       </c>
     </row>
@@ -2117,7 +1887,7 @@
       <c r="A19" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="20">
+      <c r="B19" s="18">
         <v>389521.28859999991</v>
       </c>
     </row>
@@ -2125,7 +1895,7 @@
       <c r="A20" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="20">
+      <c r="B20" s="18">
         <v>500.99099999999999</v>
       </c>
     </row>
@@ -2133,7 +1903,7 @@
       <c r="A21" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="20">
+      <c r="B21" s="18">
         <v>91.361025000000012</v>
       </c>
     </row>
@@ -2141,7 +1911,7 @@
       <c r="A22" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="20">
+      <c r="B22" s="18">
         <v>17490.086222222224</v>
       </c>
     </row>
@@ -2149,7 +1919,7 @@
       <c r="A23" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="20">
+      <c r="B23" s="18">
         <v>14751.933333333336</v>
       </c>
     </row>
@@ -2159,7 +1929,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Hoja6"/>
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -2276,11 +2046,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Hoja9"/>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -2325,7 +2095,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Waste Recycling" error="Waste recycling ratio must be between 0 and 1" sqref="C2">
+    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Waste Recycling" error="Waste recycling ratio must be between 0 and 1" sqref="C2" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
@@ -2335,7 +2105,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Waste Allocation Type" error="Invalid Waste Allocation Type">
+        <x14:dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Waste Allocation Type" error="Invalid Waste Allocation Type" xr:uid="{00000000-0002-0000-0600-000001000000}">
           <x14:formula1>
             <xm:f>Validate!$C$2:$C$7</xm:f>
           </x14:formula1>
@@ -2348,7 +2118,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2356,112 +2126,112 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="22" t="s">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="21" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="7">
-        <v>0</v>
-      </c>
-      <c r="C2" s="8">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="7">
-        <v>0</v>
-      </c>
-      <c r="C4" s="8">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="7">
-        <v>0</v>
-      </c>
-      <c r="C5" s="8">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="7">
-        <v>0</v>
-      </c>
-      <c r="C6" s="8">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="7">
-        <v>0</v>
-      </c>
-      <c r="C7" s="8">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="7">
-        <v>0</v>
-      </c>
-      <c r="C8" s="8">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B9" s="7">
-        <v>0</v>
-      </c>
-      <c r="C9" s="8">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="10">
-        <v>0</v>
-      </c>
-      <c r="C10" s="11">
+      <c r="B10" s="9">
+        <v>0</v>
+      </c>
+      <c r="C10" s="10">
         <v>0</v>
       </c>
     </row>
